--- a/app/dist/excel/Zadachka.xlsx
+++ b/app/dist/excel/Zadachka.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Значение целевой функции: 2127.0</t>
+          <t>Значение целевой функции: 102127.0</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>x_0 = 9.0</t>
+          <t>Количество партий товаров:</t>
         </is>
       </c>
     </row>
@@ -517,32 +517,38 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>x_1 = 12.0</t>
+          <t>Товар 1 = 9.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="1">
       <c r="J6" t="inlineStr">
         <is>
-          <t>x_2 = 15.0</t>
+          <t>Товар 2 = 12.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="7" s="1">
       <c r="J7" t="inlineStr">
         <is>
-          <t>x_3 = 17.0</t>
+          <t>Товар 3 = 15.0</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="8" s="1">
       <c r="J8" t="inlineStr">
         <is>
+          <t>Товар 4 = 17.0</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="9" s="1">
+      <c r="J9" t="inlineStr">
+        <is>
           <t>Сортировка: b/a</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="1"/>
     <row customHeight="1" ht="13.8" r="10" s="1"/>
     <row customHeight="1" ht="13.8" r="11" s="1"/>
     <row customHeight="1" ht="13.8" r="12" s="1"/>
